--- a/DATA_goal/Junction_Flooding_186.xlsx
+++ b/DATA_goal/Junction_Flooding_186.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41618.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.65</v>
+        <v>0.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>17.82</v>
+        <v>1.78</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.08</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>93.3</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>18.12</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>10.77</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.78</v>
+        <v>0.58</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41618.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>29.34</v>
+        <v>2.93</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.12</v>
+        <v>0.41</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41618.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.15</v>
+        <v>0.42</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.7</v>
+        <v>0.17</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>24.71</v>
+        <v>2.47</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.12</v>
+        <v>0.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41618.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.68</v>
+        <v>1.07</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.32</v>
+        <v>3.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.41</v>
+        <v>2.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>39</v>
+        <v>3.9</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.16</v>
+        <v>1.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.79</v>
+        <v>0.38</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.82</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.32</v>
+        <v>16.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.38</v>
+        <v>3.14</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.16</v>
+        <v>2.02</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>35.26</v>
+        <v>3.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41618.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>22.84</v>
+        <v>2.28</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>49.94</v>
+        <v>4.99</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>40.9</v>
+        <v>4.09</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>17.7</v>
+        <v>1.77</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>68.17</v>
+        <v>6.82</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>27.7</v>
+        <v>2.77</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.68</v>
+        <v>1.27</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.2</v>
+        <v>1.82</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.31</v>
+        <v>2.13</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25.48</v>
+        <v>2.55</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>266.22</v>
+        <v>26.62</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>50.23</v>
+        <v>5.02</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>33.78</v>
+        <v>3.38</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.87</v>
+        <v>1.79</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>34.08</v>
+        <v>3.41</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.12</v>
+        <v>2.11</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>62.08</v>
+        <v>6.21</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.34</v>
+        <v>0.93</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41618.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.71</v>
+        <v>0.27</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>3.55</v>
+        <v>0.35</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2.93</v>
+        <v>0.29</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.63</v>
+        <v>0.26</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AB7" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AC7" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>17.51</v>
+        <v>1.75</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>3.39</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41618.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.47</v>
+        <v>2.05</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44.72</v>
+        <v>4.47</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>36.7</v>
+        <v>3.67</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>58.93</v>
+        <v>5.89</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.82</v>
+        <v>2.48</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.37</v>
+        <v>1.64</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.95</v>
+        <v>1.79</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.07</v>
+        <v>1.91</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.09</v>
+        <v>1.61</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.83</v>
+        <v>2.28</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.5</v>
+        <v>1.35</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>237.59</v>
+        <v>23.76</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>44.88</v>
+        <v>4.49</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>30.23</v>
+        <v>3.02</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>29.5</v>
+        <v>2.95</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.12</v>
+        <v>1.31</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.59</v>
+        <v>1.16</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.63</v>
+        <v>1.36</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.9</v>
+        <v>1.89</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>53.31</v>
+        <v>5.33</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41618.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>29.88</v>
+        <v>2.99</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>24.46</v>
+        <v>2.45</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>43.88</v>
+        <v>4.39</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.62</v>
+        <v>0.76</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>10.86</v>
+        <v>1.09</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>15.25</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>156.35</v>
+        <v>15.64</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>30.14</v>
+        <v>3.01</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>20.26</v>
+        <v>2.03</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>21.43</v>
+        <v>2.14</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.119999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>40.04</v>
+        <v>4</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41618.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>24.82</v>
+        <v>2.48</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>7.86</v>
+        <v>0.79</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>77.38</v>
+        <v>7.74</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>11.96</v>
+        <v>1.2</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>4.05</v>
+        <v>0.4</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>4.75</v>
+        <v>0.48</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.21</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>22.77</v>
+        <v>2.28</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_186.xlsx
+++ b/DATA_goal/Junction_Flooding_186.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,55 +652,55 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41618.34027777778</v>
+        <v>44867.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.11</v>
@@ -709,262 +709,262 @@
         <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>9.33</v>
+        <v>9.56</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.58</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.2</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41618.34722222222</v>
+        <v>44867.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.66</v>
+        <v>2.09</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.45</v>
+        <v>1.62</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.67</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.07</v>
+        <v>2.75</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.35</v>
+        <v>1.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.52</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.84</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.75</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.3</v>
+        <v>1.03</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.68</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.93</v>
+        <v>10.71</v>
       </c>
       <c r="U3" s="4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" s="4" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="W3" s="4" t="n">
-        <v>0.41</v>
+        <v>1.36</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.47</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.61</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.65</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.09</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.03</v>
+        <v>2.51</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.37</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41618.35416666666</v>
+        <v>44867.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.25</v>
+        <v>1.66</v>
       </c>
       <c r="C4" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.49</v>
+        <v>2.5</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.07</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.96</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.12</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.55</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.83</v>
+        <v>4.47</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.67</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41618.36111111111</v>
+        <v>44867.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>1.43</v>
@@ -985,13 +985,13 @@
         <v>1.09</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>1.12</v>
@@ -1003,13 +1003,13 @@
         <v>1.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>0.96</v>
@@ -1021,16 +1021,16 @@
         <v>0.06</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.43</v>
+        <v>16.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>1.12</v>
@@ -1039,7 +1039,7 @@
         <v>0.15</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0.92</v>
@@ -1057,7 +1057,7 @@
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.53</v>
+        <v>4.09</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0.58</v>
@@ -1068,626 +1068,106 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41618.36805555555</v>
+        <v>44867.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.28</v>
+        <v>22.47</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.71</v>
+        <v>16.84</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.99</v>
+        <v>49.12</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.09</v>
+        <v>40.21</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.77</v>
+        <v>17.4</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>6.82</v>
+        <v>67.86</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.77</v>
+        <v>27.27</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.27</v>
+        <v>12.37</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.82</v>
+        <v>17.9</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2</v>
+        <v>19.71</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.13</v>
+        <v>20.95</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.59</v>
+        <v>5.69</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.8</v>
+        <v>17.67</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.55</v>
+        <v>25.08</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.51</v>
+        <v>14.89</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>26.62</v>
+        <v>261.65</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>5.02</v>
+        <v>49.39</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.66</v>
+        <v>16.31</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.38</v>
+        <v>33.21</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.79</v>
+        <v>17.58</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.24</v>
+        <v>2.33</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>3.41</v>
+        <v>33.63</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.47</v>
+        <v>14.41</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.3</v>
+        <v>12.75</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.52</v>
+        <v>14.97</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.11</v>
+        <v>20.76</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>6.21</v>
+        <v>61.58</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.93</v>
+        <v>9.18</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41618.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41618.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41618.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41618.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41618.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>1.83</v>
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_186.xlsx
+++ b/DATA_goal/Junction_Flooding_186.xlsx
@@ -448,11 +448,11 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -655,103 +655,103 @@
         <v>44867.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.34</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.77</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>9.56</v>
+        <v>95.59</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.54</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.52</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44867.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.86</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.62</v>
+        <v>16.23</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.72</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.75</v>
+        <v>27.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.35</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.03</v>
+        <v>10.33</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.71</v>
+        <v>107.11</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.1</v>
+        <v>21.01</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.61</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.47</v>
+        <v>14.65</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.51</v>
+        <v>25.09</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44867.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.25</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.66</v>
+        <v>36.57</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.96</v>
+        <v>29.56</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.93</v>
+        <v>49.25</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.27</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.67</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.51</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.3</v>
+        <v>192.96</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.68</v>
+        <v>36.75</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.45</v>
+        <v>24.48</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.5</v>
+        <v>24.96</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.21</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.51</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.47</v>
+        <v>44.72</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44867.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.13</v>
+        <v>31.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.54</v>
+        <v>25.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.5</v>
+        <v>44.96</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.37</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.65</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.44</v>
+        <v>164.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.16</v>
+        <v>31.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.07</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.23</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.23</v>
+        <v>22.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.09</v>
+        <v>40.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_186.xlsx
+++ b/DATA_goal/Junction_Flooding_186.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,7 +658,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.97</v>
+        <v>5.971</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>2.73</v>
@@ -667,91 +667,91 @@
         <v>18.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>13.34</v>
+        <v>13.342</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.28</v>
+        <v>5.281</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>18.25</v>
+        <v>18.251</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>10.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.38</v>
+        <v>4.378</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.239</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.41</v>
+        <v>7.412</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.207000000000001</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.47</v>
+        <v>2.471</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.77</v>
+        <v>6.767</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>8.83</v>
+        <v>8.829000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>6.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.12</v>
+        <v>1.124</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.871</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>95.59</v>
+        <v>95.593</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>18.54</v>
+        <v>18.541</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.25</v>
+        <v>6.247</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>11.31</v>
+        <v>11.315</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.84</v>
+        <v>6.838</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.072</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>10.92</v>
+        <v>10.924</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.52</v>
+        <v>5.517</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.3</v>
+        <v>5.296</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.77</v>
+        <v>5.767</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.03</v>
+        <v>2.035</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>15.72</v>
+        <v>15.721</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.104</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>7.81</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44867.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.372</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.94</v>
+        <v>6.936</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.387</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.86</v>
+        <v>20.864</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.23</v>
+        <v>16.235</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.72</v>
+        <v>6.724</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.51</v>
+        <v>27.509</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.53</v>
+        <v>11.525</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.21</v>
+        <v>5.213</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.8</v>
+        <v>6.805</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.35</v>
+        <v>8.353999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>9.048999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.5</v>
+        <v>2.502</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>10.33</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.79</v>
+        <v>6.789</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.503</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.609</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.11</v>
+        <v>107.114</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.01</v>
+        <v>21.011</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.61</v>
+        <v>13.605</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.52</v>
+        <v>7.522</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.047</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.65</v>
+        <v>14.654</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.64</v>
+        <v>5.635</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.48</v>
+        <v>6.483</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.962999999999999</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.95</v>
+        <v>0.945</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.09</v>
+        <v>25.085</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.69</v>
+        <v>3.687</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.677</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>16.64</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.44</v>
+        <v>12.437</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.25</v>
+        <v>1.252</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.57</v>
+        <v>36.567</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.56</v>
+        <v>29.558</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.65</v>
+        <v>12.649</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>49.25</v>
+        <v>49.252</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.27</v>
+        <v>20.267</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.199</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>12.96</v>
+        <v>12.957</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.66</v>
+        <v>14.665</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>15.67</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.27</v>
+        <v>4.266</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.51</v>
+        <v>18.515</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.3</v>
+        <v>11.297</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.402</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>192.96</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.75</v>
+        <v>36.751</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.48</v>
+        <v>24.476</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.1</v>
+        <v>13.102</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.76</v>
+        <v>1.755</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.96</v>
+        <v>24.959</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.59</v>
+        <v>9.593</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.21</v>
+        <v>11.211</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.51</v>
+        <v>15.512</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.627</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.72</v>
+        <v>44.719</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.73</v>
+        <v>6.735</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44867.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.21</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.86</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.21</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.63</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_186.xlsx
+++ b/DATA_goal/Junction_Flooding_186.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -967,103 +967,207 @@
         <v>44867.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.27</v>
+        <v>14.275</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.68</v>
+        <v>10.678</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.99</v>
+        <v>0.993</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.35</v>
+        <v>31.348</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.41</v>
+        <v>25.413</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.89</v>
+        <v>10.893</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.96</v>
+        <v>44.962</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>17.37</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.92</v>
+        <v>7.923</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.16</v>
+        <v>11.163</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.57</v>
+        <v>12.574</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.43</v>
+        <v>13.427</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.65</v>
+        <v>3.647</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.91</v>
+        <v>15.906</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.65</v>
+        <v>9.648999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.591</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.36</v>
+        <v>164.359</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.58</v>
+        <v>31.575</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.07</v>
+        <v>21.073</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>11.23</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.497</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.26</v>
+        <v>22.257</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.208</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.608000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.28</v>
+        <v>13.279</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.9</v>
+        <v>40.902</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.79</v>
+        <v>5.789</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44867.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>49.12</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>67.86</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>261.65</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>49.39</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>17.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.63</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>20.76</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>61.58</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_186.xlsx
+++ b/DATA_goal/Junction_Flooding_186.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
@@ -454,7 +454,7 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
@@ -967,207 +967,103 @@
         <v>44867.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.275</v>
+        <v>14.27</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.678</v>
+        <v>10.68</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.993</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.348</v>
+        <v>31.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.413</v>
+        <v>25.41</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.893</v>
+        <v>10.89</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.962</v>
+        <v>44.96</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>17.37</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.923</v>
+        <v>7.92</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.163</v>
+        <v>11.16</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.574</v>
+        <v>12.57</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.427</v>
+        <v>13.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.647</v>
+        <v>3.65</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.279</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.906</v>
+        <v>15.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.648999999999999</v>
+        <v>9.65</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.309</v>
+        <v>0.31</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.591</v>
+        <v>0.59</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.359</v>
+        <v>164.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.575</v>
+        <v>31.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.411</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.073</v>
+        <v>21.07</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>11.23</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.497</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>22.257</v>
+        <v>22.26</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.196</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.208</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.608000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.279</v>
+        <v>13.28</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.472</v>
+        <v>0.47</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.902</v>
+        <v>40.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.789</v>
+        <v>5.79</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.016</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44867.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.12</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>40.21</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.86</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.95</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.08</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>261.65</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.21</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.63</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>20.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.58</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.39</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>
